--- a/Example/Result/Net3-Example.xlsx
+++ b/Example/Result/Net3-Example.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Example//Result</t>
+          <t>C:/Users/snaeimi/Desktop/REWET GIT/Example/Result</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Example//RunFiles</t>
+          <t>C:/Users/snaeimi/Desktop/REWET GIT/Example/RunFiles</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Example//Damages</t>
+          <t>C:/Users/snaeimi/Desktop/REWET GIT/Example/Damages</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{'method': 'leak_based', 'leak_amount': 0.025, 'leak_time': 43200}</t>
+          <t>{'method': 'leak_based', 'leak_amount': 0.001, 'leak_time': 0}</t>
         </is>
       </c>
     </row>
